--- a/working/Perturb/log/tables/table6.xlsx
+++ b/working/Perturb/log/tables/table6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab_codes\FEM\FiniteElemntMethod\working\Perturb\log\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB55A0B-9099-4649-B193-273A368BD64F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B46549-2D84-4E61-9222-97E5193AB3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="1056" windowWidth="16440" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13068" yWindow="-108" windowWidth="13176" windowHeight="22656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,6 +465,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
       <c r="I1">
         <v>0</v>
       </c>
@@ -572,29 +593,50 @@
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="H2" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0.48713873109478401</v>
+      </c>
+      <c r="C2">
+        <v>0.49054711613815999</v>
+      </c>
+      <c r="D2">
+        <v>0.492064948914612</v>
+      </c>
+      <c r="E2">
+        <v>0.492612285691303</v>
+      </c>
+      <c r="F2">
+        <v>0.49277825862337798</v>
+      </c>
+      <c r="G2">
+        <v>0.49282375133529499</v>
+      </c>
+      <c r="H2">
+        <v>0.49283559585977998</v>
+      </c>
       <c r="I2">
-        <v>0.48713873109478401</v>
+        <v>0.132619367077664</v>
       </c>
       <c r="J2">
-        <v>0.49054711613815999</v>
+        <v>0.17520992845208699</v>
       </c>
       <c r="K2">
-        <v>0.492064948914612</v>
+        <v>0.21008987087059</v>
       </c>
       <c r="L2">
-        <v>0.492612285691303</v>
+        <v>0.228780866248431</v>
       </c>
       <c r="M2">
-        <v>0.49277825862337798</v>
+        <v>0.235255419905743</v>
       </c>
       <c r="N2">
-        <v>0.49282375133529499</v>
+        <v>0.23709299113030499</v>
       </c>
       <c r="O2">
-        <v>0.49283559585977998</v>
+        <v>0.23757524618022199</v>
       </c>
       <c r="P2">
         <v>6.3036920355810697E-2</v>
@@ -618,93 +660,114 @@
         <v>2.2810000709301601E-2</v>
       </c>
       <c r="W2">
+        <v>6.4436062806822098E-2</v>
+      </c>
+      <c r="X2">
+        <v>7.3311411246460402E-3</v>
+      </c>
+      <c r="Y2">
+        <v>7.0355624553171099E-4</v>
+      </c>
+      <c r="Z2">
+        <v>1.0097167952963E-4</v>
+      </c>
+      <c r="AA2">
+        <v>1.59410042956159E-4</v>
+      </c>
+      <c r="AB2">
+        <v>3.15252942537995E-4</v>
+      </c>
+      <c r="AC2">
+        <v>6.3188838898358996E-4</v>
+      </c>
+      <c r="AD2">
         <v>6.4450403042958598E-2</v>
       </c>
-      <c r="X2">
+      <c r="AE2">
         <v>7.3452429006474898E-3</v>
       </c>
-      <c r="Y2">
+      <c r="AF2">
         <v>7.1731892075032103E-4</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="AG2" s="11">
         <v>7.5500939402175195E-5</v>
       </c>
-      <c r="AA2" s="11">
+      <c r="AH2" s="11">
         <v>8.8023421218455796E-6</v>
       </c>
-      <c r="AB2" s="11">
+      <c r="AI2" s="11">
         <v>3.2284844823770998E-6</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AJ2" s="11">
         <v>6.1309744853213896E-6</v>
       </c>
-      <c r="AD2">
-        <v>6.44505479142638E-2</v>
-      </c>
-      <c r="AE2">
-        <v>7.3453857654615399E-3</v>
-      </c>
-      <c r="AF2">
-        <v>7.1747165426265796E-4</v>
-      </c>
-      <c r="AG2" s="11">
-        <v>7.5668781600450195E-5</v>
-      </c>
-      <c r="AH2" s="11">
-        <v>8.8416503117322094E-6</v>
-      </c>
-      <c r="AI2" s="11">
-        <v>1.0831875642988199E-6</v>
-      </c>
-      <c r="AJ2" s="11">
-        <v>1.3465959992895201E-7</v>
-      </c>
       <c r="AK2">
-        <v>6.4450547928750906E-2</v>
+        <v>6.4450546479890999E-2</v>
       </c>
       <c r="AL2">
-        <v>7.3453857797485204E-3</v>
+        <v>7.3453843509157096E-3</v>
       </c>
       <c r="AM2">
-        <v>7.1747166954951296E-4</v>
+        <v>7.1747014073129305E-4</v>
       </c>
       <c r="AN2" s="11">
-        <v>7.5668798833075394E-5</v>
+        <v>7.5667075839151195E-5</v>
       </c>
       <c r="AO2" s="11">
-        <v>8.8416686358065603E-6</v>
+        <v>8.8398501260691903E-6</v>
       </c>
       <c r="AP2" s="11">
-        <v>1.0832062383380799E-6</v>
+        <v>1.0817787785428499E-6</v>
       </c>
       <c r="AQ2" s="11">
-        <v>1.3467708983787799E-7</v>
+        <v>1.4623622987233501E-7</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>2.66545326076684</v>
+      </c>
+      <c r="C3">
+        <v>2.6763383147186599</v>
+      </c>
+      <c r="D3">
+        <v>2.6803499533299999</v>
+      </c>
+      <c r="E3">
+        <v>2.6818446514817902</v>
+      </c>
+      <c r="F3">
+        <v>2.6823292776739698</v>
+      </c>
+      <c r="G3">
+        <v>2.68246700433476</v>
+      </c>
+      <c r="H3">
+        <v>2.6825034154840699</v>
+      </c>
       <c r="I3">
-        <v>2.66545326076684</v>
+        <v>1.0291358091594101</v>
       </c>
       <c r="J3">
-        <v>2.6763383147186599</v>
+        <v>1.1817152980099099</v>
       </c>
       <c r="K3">
-        <v>2.6803499533299999</v>
+        <v>1.2998096254729301</v>
       </c>
       <c r="L3">
-        <v>2.6818446514817902</v>
+        <v>1.35429858817893</v>
       </c>
       <c r="M3">
-        <v>2.6823292776739698</v>
+        <v>1.3734584489712001</v>
       </c>
       <c r="N3">
-        <v>2.68246700433476</v>
+        <v>1.3789460699732099</v>
       </c>
       <c r="O3">
-        <v>2.6825034154840699</v>
+        <v>1.3803821660456901</v>
       </c>
       <c r="P3">
         <v>0.48221462244938201</v>
@@ -728,287 +791,329 @@
         <v>0.33054830668574298</v>
       </c>
       <c r="W3">
+        <v>0.48339878364885402</v>
+      </c>
+      <c r="X3">
+        <v>0.12924794579541499</v>
+      </c>
+      <c r="Y3">
+        <v>3.3288589350145101E-2</v>
+      </c>
+      <c r="Z3">
+        <v>8.5155287471323001E-3</v>
+      </c>
+      <c r="AA3">
+        <v>6.58266731298701E-3</v>
+      </c>
+      <c r="AB3">
+        <v>1.7017691493873801E-2</v>
+      </c>
+      <c r="AC3">
+        <v>4.0206400863352199E-2</v>
+      </c>
+      <c r="AD3">
         <v>0.483413240303527</v>
       </c>
-      <c r="X3">
+      <c r="AE3">
         <v>0.12932228568114101</v>
       </c>
-      <c r="Y3">
+      <c r="AF3">
         <v>3.3427920685574902E-2</v>
       </c>
-      <c r="Z3">
+      <c r="AG3">
         <v>8.4430286289744194E-3</v>
       </c>
-      <c r="AA3">
+      <c r="AH3">
         <v>2.11112468662131E-3</v>
       </c>
-      <c r="AB3">
+      <c r="AI3">
         <v>5.51259688892246E-4</v>
       </c>
-      <c r="AC3">
+      <c r="AJ3">
         <v>5.2356231121408997E-4</v>
       </c>
-      <c r="AD3">
-        <v>0.483413386583537</v>
-      </c>
-      <c r="AE3">
-        <v>0.129323041269329</v>
-      </c>
-      <c r="AF3">
-        <v>3.3429443859004301E-2</v>
-      </c>
-      <c r="AG3">
-        <v>8.4457518825971096E-3</v>
-      </c>
-      <c r="AH3">
-        <v>2.11509839133694E-3</v>
-      </c>
-      <c r="AI3">
-        <v>5.2855567582676E-4</v>
-      </c>
-      <c r="AJ3">
-        <v>1.3205948351576401E-4</v>
-      </c>
       <c r="AK3">
-        <v>0.48341338659816502</v>
+        <v>0.483413385135194</v>
       </c>
       <c r="AL3">
-        <v>0.129323041344893</v>
+        <v>0.129323033787792</v>
       </c>
       <c r="AM3">
-        <v>3.3429444011437E-2</v>
+        <v>3.3429428766760597E-2</v>
       </c>
       <c r="AN3">
-        <v>8.44575215839064E-3</v>
+        <v>8.4457245797473299E-3</v>
       </c>
       <c r="AO3">
-        <v>2.1150988983402899E-3</v>
+        <v>2.1150483011567801E-3</v>
       </c>
       <c r="AP3">
-        <v>5.2855663787124303E-4</v>
+        <v>5.2846386972310502E-4</v>
       </c>
       <c r="AQ3">
-        <v>1.3206134263341301E-4</v>
+        <v>1.31984998930554E-4</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="H4" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>12.3752016768078</v>
+      </c>
+      <c r="C4">
+        <v>12.3976725073205</v>
+      </c>
+      <c r="D4">
+        <v>12.4070119180042</v>
+      </c>
+      <c r="E4">
+        <v>12.4111740278111</v>
+      </c>
+      <c r="F4">
+        <v>12.4126726479806</v>
+      </c>
+      <c r="G4">
+        <v>12.4131171089712</v>
+      </c>
+      <c r="H4">
+        <v>12.4132365359955</v>
+      </c>
       <c r="I4">
-        <v>12.375137076209</v>
+        <v>6.76777513457992</v>
       </c>
       <c r="J4">
-        <v>12.397671031370599</v>
+        <v>7.6761877995017196</v>
       </c>
       <c r="K4">
-        <v>12.4070118867752</v>
+        <v>9.7859474444583494</v>
       </c>
       <c r="L4">
-        <v>12.411174027220101</v>
+        <v>10.7152713103601</v>
       </c>
       <c r="M4">
-        <v>12.4126726479706</v>
+        <v>10.9961215938711</v>
       </c>
       <c r="N4">
-        <v>12.4131171089711</v>
+        <v>11.071025560501999</v>
       </c>
       <c r="O4">
-        <v>12.4132365359955</v>
+        <v>11.090206264349</v>
       </c>
       <c r="P4">
-        <v>5.8067145520583301</v>
+        <v>6.33113043470627</v>
       </c>
       <c r="Q4">
-        <v>3.10076616047572</v>
+        <v>3.3128701529995799</v>
       </c>
       <c r="R4">
-        <v>2.0545259690940001</v>
+        <v>2.11868223629827</v>
       </c>
       <c r="S4">
-        <v>6.5319560647379697</v>
+        <v>6.53482844813397</v>
       </c>
       <c r="T4">
-        <v>17.0093109652362</v>
+        <v>17.009382855397501</v>
       </c>
       <c r="U4">
-        <v>26.3091555264261</v>
+        <v>26.309156884201499</v>
       </c>
       <c r="V4">
-        <v>30.2970357010967</v>
+        <v>30.297035724064202</v>
       </c>
       <c r="W4">
-        <v>5.8397613463406897</v>
+        <v>6.3681647703004396</v>
       </c>
       <c r="X4">
-        <v>3.21831924563734</v>
+        <v>3.43291382495606</v>
       </c>
       <c r="Y4">
-        <v>1.66996616476078</v>
+        <v>1.76019165738672</v>
       </c>
       <c r="Z4">
-        <v>0.84167990389869596</v>
+        <v>0.87711052604356798</v>
       </c>
       <c r="AA4">
-        <v>0.42036713451317798</v>
+        <v>0.67525327119797596</v>
       </c>
       <c r="AB4">
-        <v>0.210343199604931</v>
+        <v>2.9267821174406401</v>
       </c>
       <c r="AC4">
-        <v>0.20295712682745901</v>
+        <v>13.321608926901</v>
       </c>
       <c r="AD4">
-        <v>5.8397647780942199</v>
+        <v>6.3685473466525702</v>
       </c>
       <c r="AE4">
-        <v>3.2183338331649201</v>
+        <v>3.4343827828981799</v>
       </c>
       <c r="AF4">
-        <v>1.67001478613625</v>
+        <v>1.7648509540021899</v>
       </c>
       <c r="AG4">
-        <v>0.84184583057439699</v>
+        <v>0.88714316729938403</v>
       </c>
       <c r="AH4">
-        <v>0.42093401357864502</v>
+        <v>0.44285345373096402</v>
       </c>
       <c r="AI4">
-        <v>0.210216145318326</v>
+        <v>0.221520939423893</v>
       </c>
       <c r="AJ4">
-        <v>0.10501066098046501</v>
+        <v>0.20589454265708201</v>
       </c>
       <c r="AK4">
-        <v>5.8397647784373996</v>
+        <v>6.36855117365696</v>
       </c>
       <c r="AL4">
-        <v>3.2183338346236998</v>
+        <v>3.4343975003311198</v>
       </c>
       <c r="AM4">
-        <v>1.67001479099953</v>
+        <v>1.7648986272389999</v>
       </c>
       <c r="AN4">
-        <v>0.84184584723006495</v>
+        <v>0.88730311743947099</v>
       </c>
       <c r="AO4">
-        <v>0.42093407411634698</v>
+        <v>0.44339394530065201</v>
       </c>
       <c r="AP4">
-        <v>0.21021637503462701</v>
+        <v>0.22139371241575401</v>
       </c>
       <c r="AQ4">
-        <v>0.10501155347445799</v>
+        <v>0.110536220082284</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>9.9510938339959392</v>
+      </c>
+      <c r="C5">
+        <v>9.9640364134241999</v>
+      </c>
+      <c r="D5">
+        <v>9.9697815540557304</v>
+      </c>
+      <c r="E5">
+        <v>9.9725918629276293</v>
+      </c>
+      <c r="F5">
+        <v>9.9736510751628504</v>
+      </c>
+      <c r="G5">
+        <v>9.9739705751655592</v>
+      </c>
+      <c r="H5">
+        <v>9.9740569590772505</v>
+      </c>
       <c r="I5">
-        <v>9.9510308001754897</v>
+        <v>1.0644536363766799</v>
       </c>
       <c r="J5">
-        <v>9.9640349734251998</v>
+        <v>1.19784589562892</v>
       </c>
       <c r="K5">
-        <v>9.9697815235882903</v>
+        <v>1.38117142107659</v>
       </c>
       <c r="L5">
-        <v>9.9725918623509795</v>
+        <v>1.4639222129040299</v>
       </c>
       <c r="M5">
-        <v>9.9736510751530592</v>
+        <v>1.4904571766326999</v>
       </c>
       <c r="N5">
-        <v>9.97397057516541</v>
+        <v>1.497729115084</v>
       </c>
       <c r="O5">
-        <v>9.9740569590772505</v>
+        <v>1.49960478003116</v>
       </c>
       <c r="P5">
-        <v>0.42254582696139298</v>
+        <v>0.42323861774457</v>
       </c>
       <c r="Q5">
-        <v>0.123687778243102</v>
+        <v>0.12421488032867101</v>
       </c>
       <c r="R5">
-        <v>7.8214450180974296E-2</v>
+        <v>7.8378859793846706E-2</v>
       </c>
       <c r="S5">
-        <v>0.16938912156316699</v>
+        <v>0.16939991980104299</v>
       </c>
       <c r="T5">
-        <v>0.297337929441435</v>
+        <v>0.29733833440850299</v>
       </c>
       <c r="U5">
-        <v>0.38984182068515399</v>
+        <v>0.38984182974025</v>
       </c>
       <c r="V5">
-        <v>0.42953684549894999</v>
+        <v>0.42953684565918199</v>
       </c>
       <c r="W5">
-        <v>0.418963179659115</v>
+        <v>0.41900404762493199</v>
       </c>
       <c r="X5">
-        <v>0.121977433915034</v>
+        <v>0.12196155734235101</v>
       </c>
       <c r="Y5">
-        <v>3.2711011149018102E-2</v>
+        <v>3.2630761202202201E-2</v>
       </c>
       <c r="Z5">
-        <v>8.3679425471654204E-3</v>
+        <v>8.4592687575978098E-3</v>
       </c>
       <c r="AA5">
-        <v>2.10273836248814E-3</v>
+        <v>6.4579682821692599E-3</v>
       </c>
       <c r="AB5">
-        <v>5.4843260988700197E-4</v>
+        <v>1.6954001963420201E-2</v>
       </c>
       <c r="AC5">
-        <v>5.1782717359110005E-4</v>
+        <v>4.1743714384833999E-2</v>
       </c>
       <c r="AD5">
-        <v>0.41896283870351297</v>
+        <v>0.41896325060016898</v>
       </c>
       <c r="AE5">
-        <v>0.121977655542981</v>
+        <v>0.121977490545278</v>
       </c>
       <c r="AF5">
-        <v>3.2711972245680898E-2</v>
+        <v>3.2711059996187002E-2</v>
       </c>
       <c r="AG5">
-        <v>8.3700831424870295E-3</v>
+        <v>8.3679890520420297E-3</v>
       </c>
       <c r="AH5">
-        <v>2.1062567826652598E-3</v>
+        <v>2.1027842918825098E-3</v>
       </c>
       <c r="AI5">
-        <v>5.2747252994130196E-4</v>
+        <v>5.4847650542256903E-4</v>
       </c>
       <c r="AJ5">
-        <v>1.31924865604424E-4</v>
+        <v>5.1783873998050998E-4</v>
       </c>
       <c r="AK5">
-        <v>0.41896283866941803</v>
+        <v>0.41896284278870599</v>
       </c>
       <c r="AL5">
-        <v>0.121977655565148</v>
+        <v>0.121977653914548</v>
       </c>
       <c r="AM5">
-        <v>3.2711972341891597E-2</v>
+        <v>3.2711963208429E-2</v>
       </c>
       <c r="AN5">
-        <v>8.3700833595617107E-3</v>
+        <v>8.3700621179153296E-3</v>
       </c>
       <c r="AO5">
-        <v>2.1062572297086499E-3</v>
+        <v>2.1062130737177702E-3</v>
       </c>
       <c r="AP5">
-        <v>5.2747343163707296E-4</v>
+        <v>5.2738671579293699E-4</v>
       </c>
       <c r="AQ5">
-        <v>1.3192666554774399E-4</v>
+        <v>1.3184338534776401E-4</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1053,31 +1158,31 @@
       </c>
       <c r="B8" s="2">
         <f>AK2</f>
-        <v>6.4450547928750906E-2</v>
+        <v>6.4450546479890999E-2</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ref="C8:H8" si="0">AL2</f>
-        <v>7.3453857797485204E-3</v>
+        <v>7.3453843509157096E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>7.1747166954951296E-4</v>
+        <v>7.1747014073129305E-4</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>7.5668798833075394E-5</v>
+        <v>7.5667075839151195E-5</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>8.8416686358065603E-6</v>
+        <v>8.8398501260691903E-6</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>1.0832062383380799E-6</v>
+        <v>1.0817787785428499E-6</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>1.3467708983787799E-7</v>
+        <v>1.4623622987233501E-7</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
@@ -1087,27 +1192,27 @@
       </c>
       <c r="C9" s="4">
         <f>LOG(B8/C8, 2)</f>
-        <v>3.1332824555203724</v>
+        <v>3.133282703723038</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ref="D9:H9" si="1">LOG(C8/D8, 2)</f>
-        <v>3.3558444920950206</v>
+        <v>3.3558472856176711</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>3.2451514168487661</v>
+        <v>3.245181193524632</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>3.0973079722395314</v>
+        <v>3.0975718781526567</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>3.0290107138763709</v>
+        <v>3.0306164086019831</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>3.0077315953993331</v>
+        <v>2.8870328143953339</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
@@ -1116,31 +1221,31 @@
       </c>
       <c r="B10" s="5">
         <f>AK3</f>
-        <v>0.48341338659816502</v>
+        <v>0.483413385135194</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:H10" si="2">AL3</f>
-        <v>0.129323041344893</v>
+        <v>0.129323033787792</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="2"/>
-        <v>3.3429444011437E-2</v>
+        <v>3.3429428766760597E-2</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="2"/>
-        <v>8.44575215839064E-3</v>
+        <v>8.4457245797473299E-3</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>2.1150988983402899E-3</v>
+        <v>2.1150483011567801E-3</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="2"/>
-        <v>5.2855663787124303E-4</v>
+        <v>5.2846386972310502E-4</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>1.3206134263341301E-4</v>
+        <v>1.31984998930554E-4</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
@@ -1150,27 +1255,27 @@
       </c>
       <c r="C11" s="4">
         <f>LOG(B10/C10, 2)</f>
-        <v>1.9022780830654005</v>
+        <v>1.9022781630044254</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ref="D11:H11" si="3">LOG(C10/D10, 2)</f>
-        <v>1.9517880756546921</v>
+        <v>1.9517886492553567</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="3"/>
-        <v>1.9848215438661974</v>
+        <v>1.9848255969247279</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="3"/>
-        <v>1.997500788871964</v>
+        <v>1.9975305903264027</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
-        <v>2.0005951447883974</v>
+        <v>2.0008138652003438</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="3"/>
-        <v>2.0008498542844309</v>
+        <v>2.0014308741378359</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
@@ -1179,31 +1284,31 @@
       </c>
       <c r="B12" s="5">
         <f>AK4</f>
-        <v>5.8397647784373996</v>
+        <v>6.36855117365696</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" ref="C12:H12" si="4">AL4</f>
-        <v>3.2183338346236998</v>
+        <v>3.4343975003311198</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="4"/>
-        <v>1.67001479099953</v>
+        <v>1.7648986272389999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="4"/>
-        <v>0.84184584723006495</v>
+        <v>0.88730311743947099</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>0.42093407411634698</v>
+        <v>0.44339394530065201</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="4"/>
-        <v>0.21021637503462701</v>
+        <v>0.22139371241575401</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="4"/>
-        <v>0.10501155347445799</v>
+        <v>0.110536220082284</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
@@ -1213,27 +1318,27 @@
       </c>
       <c r="C13" s="4">
         <f>LOG(B12/C12, 2)</f>
-        <v>0.85959627637754721</v>
+        <v>0.89090817314535864</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ref="D13:H13" si="5">LOG(C12/D12, 2)</f>
-        <v>0.94645310274199734</v>
+        <v>0.9604717079186893</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="5"/>
-        <v>0.98823289380202461</v>
+        <v>0.99208637757948592</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="5"/>
-        <v>0.9999617826471856</v>
+        <v>1.0008379674119141</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
-        <v>1.0017192448796932</v>
+        <v>1.001974819690761</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="5"/>
-        <v>1.0013269906347655</v>
+        <v>1.0020950663110046</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
@@ -1242,31 +1347,31 @@
       </c>
       <c r="B14" s="5">
         <f>AK5</f>
-        <v>0.41896283866941803</v>
+        <v>0.41896284278870599</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" ref="C14:H14" si="6">AL5</f>
-        <v>0.121977655565148</v>
+        <v>0.121977653914548</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="6"/>
-        <v>3.2711972341891597E-2</v>
+        <v>3.2711963208429E-2</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="6"/>
-        <v>8.3700833595617107E-3</v>
+        <v>8.3700621179153296E-3</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="6"/>
-        <v>2.1062572297086499E-3</v>
+        <v>2.1062130737177702E-3</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="6"/>
-        <v>5.2747343163707296E-4</v>
+        <v>5.2738671579293699E-4</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="6"/>
-        <v>1.3192666554774399E-4</v>
+        <v>1.3184338534776401E-4</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1276,27 +1381,27 @@
       </c>
       <c r="C15" s="9">
         <f>LOG(B14/C14, 2)</f>
-        <v>1.7802053924708079</v>
+        <v>1.7802054261780718</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" ref="D15:H15" si="7">LOG(C14/D14, 2)</f>
-        <v>1.898726239111252</v>
+        <v>1.8987266224015789</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="7"/>
-        <v>1.9665048520853148</v>
+        <v>1.966508110556995</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="7"/>
-        <v>1.9905603526343247</v>
+        <v>1.990586936609448</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="7"/>
-        <v>1.9975113048312683</v>
+        <v>1.9977182559789002</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="7"/>
-        <v>1.9993622310145018</v>
+        <v>2.0000360397429309</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">

--- a/working/Perturb/log/tables/table6.xlsx
+++ b/working/Perturb/log/tables/table6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab_codes\FEM\FiniteElemntMethod\working\Perturb\log\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B46549-2D84-4E61-9222-97E5193AB3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5653159-A66B-4B11-BE82-BA88BFCEBEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13068" yWindow="-108" windowWidth="13176" windowHeight="22656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,48 +465,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>1</v>
-      </c>
-      <c r="K1">
-        <v>2</v>
-      </c>
-      <c r="L1">
-        <v>3</v>
-      </c>
-      <c r="M1">
-        <v>4</v>
-      </c>
-      <c r="N1">
-        <v>5</v>
-      </c>
-      <c r="O1">
-        <v>6</v>
-      </c>
       <c r="P1">
         <v>0</v>
       </c>
@@ -593,92 +551,50 @@
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="O2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="P2">
         <v>0.48713873109478401</v>
       </c>
-      <c r="C2">
+      <c r="Q2">
         <v>0.49054711613815999</v>
       </c>
-      <c r="D2">
+      <c r="R2">
         <v>0.492064948914612</v>
       </c>
-      <c r="E2">
+      <c r="S2">
         <v>0.492612285691303</v>
       </c>
-      <c r="F2">
+      <c r="T2">
         <v>0.49277825862337798</v>
       </c>
-      <c r="G2">
+      <c r="U2">
         <v>0.49282375133529499</v>
       </c>
-      <c r="H2">
+      <c r="V2">
         <v>0.49283559585977998</v>
       </c>
-      <c r="I2">
-        <v>0.132619367077664</v>
-      </c>
-      <c r="J2">
-        <v>0.17520992845208699</v>
-      </c>
-      <c r="K2">
-        <v>0.21008987087059</v>
-      </c>
-      <c r="L2">
-        <v>0.228780866248431</v>
-      </c>
-      <c r="M2">
-        <v>0.235255419905743</v>
-      </c>
-      <c r="N2">
-        <v>0.23709299113030499</v>
-      </c>
-      <c r="O2">
-        <v>0.23757524618022199</v>
-      </c>
-      <c r="P2">
+      <c r="W2">
         <v>6.3036920355810697E-2</v>
       </c>
-      <c r="Q2">
+      <c r="X2">
         <v>6.4308715227357803E-3</v>
       </c>
-      <c r="R2">
+      <c r="Y2">
         <v>4.4588679796884103E-3</v>
       </c>
-      <c r="S2">
+      <c r="Z2">
         <v>8.32385224475235E-3</v>
       </c>
-      <c r="T2">
+      <c r="AA2">
         <v>1.4211453919891899E-2</v>
       </c>
-      <c r="U2">
+      <c r="AB2">
         <v>1.98522058080874E-2</v>
       </c>
-      <c r="V2">
+      <c r="AC2">
         <v>2.2810000709301601E-2</v>
-      </c>
-      <c r="W2">
-        <v>6.4436062806822098E-2</v>
-      </c>
-      <c r="X2">
-        <v>7.3311411246460402E-3</v>
-      </c>
-      <c r="Y2">
-        <v>7.0355624553171099E-4</v>
-      </c>
-      <c r="Z2">
-        <v>1.0097167952963E-4</v>
-      </c>
-      <c r="AA2">
-        <v>1.59410042956159E-4</v>
-      </c>
-      <c r="AB2">
-        <v>3.15252942537995E-4</v>
-      </c>
-      <c r="AC2">
-        <v>6.3188838898358996E-4</v>
       </c>
       <c r="AD2">
         <v>6.4450403042958598E-2</v>
@@ -702,114 +618,72 @@
         <v>6.1309744853213896E-6</v>
       </c>
       <c r="AK2">
-        <v>6.4450546479890999E-2</v>
+        <v>6.44505479142638E-2</v>
       </c>
       <c r="AL2">
-        <v>7.3453843509157096E-3</v>
+        <v>7.3453857654615399E-3</v>
       </c>
       <c r="AM2">
-        <v>7.1747014073129305E-4</v>
+        <v>7.1747165426265796E-4</v>
       </c>
       <c r="AN2" s="11">
-        <v>7.5667075839151195E-5</v>
+        <v>7.5668781600450195E-5</v>
       </c>
       <c r="AO2" s="11">
-        <v>8.8398501260691903E-6</v>
+        <v>8.8416503117322094E-6</v>
       </c>
       <c r="AP2" s="11">
-        <v>1.0817787785428499E-6</v>
+        <v>1.0831875642988199E-6</v>
       </c>
       <c r="AQ2" s="11">
-        <v>1.4623622987233501E-7</v>
+        <v>1.3465959992895201E-7</v>
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="O3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="P3">
         <v>2.66545326076684</v>
       </c>
-      <c r="C3">
+      <c r="Q3">
         <v>2.6763383147186599</v>
       </c>
-      <c r="D3">
+      <c r="R3">
         <v>2.6803499533299999</v>
       </c>
-      <c r="E3">
+      <c r="S3">
         <v>2.6818446514817902</v>
       </c>
-      <c r="F3">
+      <c r="T3">
         <v>2.6823292776739698</v>
       </c>
-      <c r="G3">
+      <c r="U3">
         <v>2.68246700433476</v>
       </c>
-      <c r="H3">
+      <c r="V3">
         <v>2.6825034154840699</v>
       </c>
-      <c r="I3">
-        <v>1.0291358091594101</v>
-      </c>
-      <c r="J3">
-        <v>1.1817152980099099</v>
-      </c>
-      <c r="K3">
-        <v>1.2998096254729301</v>
-      </c>
-      <c r="L3">
-        <v>1.35429858817893</v>
-      </c>
-      <c r="M3">
-        <v>1.3734584489712001</v>
-      </c>
-      <c r="N3">
-        <v>1.3789460699732099</v>
-      </c>
-      <c r="O3">
-        <v>1.3803821660456901</v>
-      </c>
-      <c r="P3">
+      <c r="W3">
         <v>0.48221462244938201</v>
       </c>
-      <c r="Q3">
+      <c r="X3">
         <v>0.12648933320783501</v>
       </c>
-      <c r="R3">
+      <c r="Y3">
         <v>8.0140307865473007E-2</v>
       </c>
-      <c r="S3">
+      <c r="Z3">
         <v>0.165292748289287</v>
       </c>
-      <c r="T3">
+      <c r="AA3">
         <v>0.25988505332909501</v>
       </c>
-      <c r="U3">
+      <c r="AB3">
         <v>0.310339384660758</v>
       </c>
-      <c r="V3">
+      <c r="AC3">
         <v>0.33054830668574298</v>
-      </c>
-      <c r="W3">
-        <v>0.48339878364885402</v>
-      </c>
-      <c r="X3">
-        <v>0.12924794579541499</v>
-      </c>
-      <c r="Y3">
-        <v>3.3288589350145101E-2</v>
-      </c>
-      <c r="Z3">
-        <v>8.5155287471323001E-3</v>
-      </c>
-      <c r="AA3">
-        <v>6.58266731298701E-3</v>
-      </c>
-      <c r="AB3">
-        <v>1.7017691493873801E-2</v>
-      </c>
-      <c r="AC3">
-        <v>4.0206400863352199E-2</v>
       </c>
       <c r="AD3">
         <v>0.483413240303527</v>
@@ -833,114 +707,72 @@
         <v>5.2356231121408997E-4</v>
       </c>
       <c r="AK3">
-        <v>0.483413385135194</v>
+        <v>0.483413386583537</v>
       </c>
       <c r="AL3">
-        <v>0.129323033787792</v>
+        <v>0.129323041269329</v>
       </c>
       <c r="AM3">
-        <v>3.3429428766760597E-2</v>
+        <v>3.3429443859004301E-2</v>
       </c>
       <c r="AN3">
-        <v>8.4457245797473299E-3</v>
+        <v>8.4457518825971096E-3</v>
       </c>
       <c r="AO3">
-        <v>2.1150483011567801E-3</v>
+        <v>2.11509839133694E-3</v>
       </c>
       <c r="AP3">
-        <v>5.2846386972310502E-4</v>
+        <v>5.2855567582676E-4</v>
       </c>
       <c r="AQ3">
-        <v>1.31984998930554E-4</v>
+        <v>1.3205948351576401E-4</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="O4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="P4">
         <v>12.3752016768078</v>
       </c>
-      <c r="C4">
+      <c r="Q4">
         <v>12.3976725073205</v>
       </c>
-      <c r="D4">
+      <c r="R4">
         <v>12.4070119180042</v>
       </c>
-      <c r="E4">
+      <c r="S4">
         <v>12.4111740278111</v>
       </c>
-      <c r="F4">
+      <c r="T4">
         <v>12.4126726479806</v>
       </c>
-      <c r="G4">
+      <c r="U4">
         <v>12.4131171089712</v>
       </c>
-      <c r="H4">
+      <c r="V4">
         <v>12.4132365359955</v>
       </c>
-      <c r="I4">
-        <v>6.76777513457992</v>
-      </c>
-      <c r="J4">
-        <v>7.6761877995017196</v>
-      </c>
-      <c r="K4">
-        <v>9.7859474444583494</v>
-      </c>
-      <c r="L4">
-        <v>10.7152713103601</v>
-      </c>
-      <c r="M4">
-        <v>10.9961215938711</v>
-      </c>
-      <c r="N4">
-        <v>11.071025560501999</v>
-      </c>
-      <c r="O4">
-        <v>11.090206264349</v>
-      </c>
-      <c r="P4">
+      <c r="W4">
         <v>6.33113043470627</v>
       </c>
-      <c r="Q4">
+      <c r="X4">
         <v>3.3128701529995799</v>
       </c>
-      <c r="R4">
+      <c r="Y4">
         <v>2.11868223629827</v>
       </c>
-      <c r="S4">
+      <c r="Z4">
         <v>6.53482844813397</v>
       </c>
-      <c r="T4">
+      <c r="AA4">
         <v>17.009382855397501</v>
       </c>
-      <c r="U4">
+      <c r="AB4">
         <v>26.309156884201499</v>
       </c>
-      <c r="V4">
+      <c r="AC4">
         <v>30.297035724064202</v>
-      </c>
-      <c r="W4">
-        <v>6.3681647703004396</v>
-      </c>
-      <c r="X4">
-        <v>3.43291382495606</v>
-      </c>
-      <c r="Y4">
-        <v>1.76019165738672</v>
-      </c>
-      <c r="Z4">
-        <v>0.87711052604356798</v>
-      </c>
-      <c r="AA4">
-        <v>0.67525327119797596</v>
-      </c>
-      <c r="AB4">
-        <v>2.9267821174406401</v>
-      </c>
-      <c r="AC4">
-        <v>13.321608926901</v>
       </c>
       <c r="AD4">
         <v>6.3685473466525702</v>
@@ -964,114 +796,72 @@
         <v>0.20589454265708201</v>
       </c>
       <c r="AK4">
-        <v>6.36855117365696</v>
+        <v>6.3685512119271301</v>
       </c>
       <c r="AL4">
-        <v>3.4343975003311198</v>
+        <v>3.4343976475082401</v>
       </c>
       <c r="AM4">
-        <v>1.7648986272389999</v>
+        <v>1.76489910407938</v>
       </c>
       <c r="AN4">
-        <v>0.88730311743947099</v>
+        <v>0.88730472288289297</v>
       </c>
       <c r="AO4">
-        <v>0.44339394530065201</v>
+        <v>0.44339971278177998</v>
       </c>
       <c r="AP4">
-        <v>0.22139371241575401</v>
+        <v>0.221415240005127</v>
       </c>
       <c r="AQ4">
-        <v>0.110536220082284</v>
+        <v>0.110605981411991</v>
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="O5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="P5">
         <v>9.9510938339959392</v>
       </c>
-      <c r="C5">
+      <c r="Q5">
         <v>9.9640364134241999</v>
       </c>
-      <c r="D5">
+      <c r="R5">
         <v>9.9697815540557304</v>
       </c>
-      <c r="E5">
+      <c r="S5">
         <v>9.9725918629276293</v>
       </c>
-      <c r="F5">
+      <c r="T5">
         <v>9.9736510751628504</v>
       </c>
-      <c r="G5">
+      <c r="U5">
         <v>9.9739705751655592</v>
       </c>
-      <c r="H5">
+      <c r="V5">
         <v>9.9740569590772505</v>
       </c>
-      <c r="I5">
-        <v>1.0644536363766799</v>
-      </c>
-      <c r="J5">
-        <v>1.19784589562892</v>
-      </c>
-      <c r="K5">
-        <v>1.38117142107659</v>
-      </c>
-      <c r="L5">
-        <v>1.4639222129040299</v>
-      </c>
-      <c r="M5">
-        <v>1.4904571766326999</v>
-      </c>
-      <c r="N5">
-        <v>1.497729115084</v>
-      </c>
-      <c r="O5">
-        <v>1.49960478003116</v>
-      </c>
-      <c r="P5">
+      <c r="W5">
         <v>0.42323861774457</v>
       </c>
-      <c r="Q5">
+      <c r="X5">
         <v>0.12421488032867101</v>
       </c>
-      <c r="R5">
+      <c r="Y5">
         <v>7.8378859793846706E-2</v>
       </c>
-      <c r="S5">
+      <c r="Z5">
         <v>0.16939991980104299</v>
       </c>
-      <c r="T5">
+      <c r="AA5">
         <v>0.29733833440850299</v>
       </c>
-      <c r="U5">
+      <c r="AB5">
         <v>0.38984182974025</v>
       </c>
-      <c r="V5">
+      <c r="AC5">
         <v>0.42953684565918199</v>
-      </c>
-      <c r="W5">
-        <v>0.41900404762493199</v>
-      </c>
-      <c r="X5">
-        <v>0.12196155734235101</v>
-      </c>
-      <c r="Y5">
-        <v>3.2630761202202201E-2</v>
-      </c>
-      <c r="Z5">
-        <v>8.4592687575978098E-3</v>
-      </c>
-      <c r="AA5">
-        <v>6.4579682821692599E-3</v>
-      </c>
-      <c r="AB5">
-        <v>1.6954001963420201E-2</v>
-      </c>
-      <c r="AC5">
-        <v>4.1743714384833999E-2</v>
       </c>
       <c r="AD5">
         <v>0.41896325060016898</v>
@@ -1095,25 +885,25 @@
         <v>5.1783873998050998E-4</v>
       </c>
       <c r="AK5">
-        <v>0.41896284278870599</v>
+        <v>0.41896283871060702</v>
       </c>
       <c r="AL5">
-        <v>0.121977653914548</v>
+        <v>0.121977655548644</v>
       </c>
       <c r="AM5">
-        <v>3.2711963208429E-2</v>
+        <v>3.2711972250565602E-2</v>
       </c>
       <c r="AN5">
-        <v>8.3700621179153296E-3</v>
+        <v>8.3700831471367702E-3</v>
       </c>
       <c r="AO5">
-        <v>2.1062130737177702E-3</v>
+        <v>2.1062567872522698E-3</v>
       </c>
       <c r="AP5">
-        <v>5.2738671579293699E-4</v>
+        <v>5.2747253451219597E-4</v>
       </c>
       <c r="AQ5">
-        <v>1.3184338534776401E-4</v>
+        <v>1.3192487017129001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1158,31 +948,31 @@
       </c>
       <c r="B8" s="2">
         <f>AK2</f>
-        <v>6.4450546479890999E-2</v>
+        <v>6.44505479142638E-2</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ref="C8:H8" si="0">AL2</f>
-        <v>7.3453843509157096E-3</v>
+        <v>7.3453857654615399E-3</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>7.1747014073129305E-4</v>
+        <v>7.1747165426265796E-4</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>7.5667075839151195E-5</v>
+        <v>7.5668781600450195E-5</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>8.8398501260691903E-6</v>
+        <v>8.8416503117322094E-6</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>1.0817787785428499E-6</v>
+        <v>1.0831875642988199E-6</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>1.4623622987233501E-7</v>
+        <v>1.3465959992895201E-7</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.3">
@@ -1192,27 +982,27 @@
       </c>
       <c r="C9" s="4">
         <f>LOG(B8/C8, 2)</f>
-        <v>3.133282703723038</v>
+        <v>3.1332824580021672</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ref="D9:H9" si="1">LOG(C8/D8, 2)</f>
-        <v>3.3558472856176711</v>
+        <v>3.3558445200278104</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>3.245181193524632</v>
+        <v>3.2451517146657336</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="1"/>
-        <v>3.0975718781526567</v>
+        <v>3.0973106336259386</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>3.0306164086019831</v>
+        <v>3.0290325956299364</v>
       </c>
       <c r="H9" s="4">
         <f t="shared" si="1"/>
-        <v>2.8870328143953339</v>
+        <v>3.0078940921970623</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
@@ -1221,31 +1011,31 @@
       </c>
       <c r="B10" s="5">
         <f>AK3</f>
-        <v>0.483413385135194</v>
+        <v>0.483413386583537</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:H10" si="2">AL3</f>
-        <v>0.129323033787792</v>
+        <v>0.129323041269329</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="2"/>
-        <v>3.3429428766760597E-2</v>
+        <v>3.3429443859004301E-2</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="2"/>
-        <v>8.4457245797473299E-3</v>
+        <v>8.4457518825971096E-3</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="2"/>
-        <v>2.1150483011567801E-3</v>
+        <v>2.11509839133694E-3</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="2"/>
-        <v>5.2846386972310502E-4</v>
+        <v>5.2855567582676E-4</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
-        <v>1.31984998930554E-4</v>
+        <v>1.3205948351576401E-4</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
@@ -1255,27 +1045,27 @@
       </c>
       <c r="C11" s="4">
         <f>LOG(B10/C10, 2)</f>
-        <v>1.9022781630044254</v>
+        <v>1.9022780838647175</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ref="D11:H11" si="3">LOG(C10/D10, 2)</f>
-        <v>1.9517886492553567</v>
+        <v>1.9517880813901685</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="3"/>
-        <v>1.9848255969247279</v>
+        <v>1.9848215843985275</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="3"/>
-        <v>1.9975305903264027</v>
+        <v>1.9975010875848749</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
-        <v>2.0008138652003438</v>
+        <v>2.0005974248669629</v>
       </c>
       <c r="H11" s="4">
         <f t="shared" si="3"/>
-        <v>2.0014308741378359</v>
+        <v>2.0008675383278294</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
@@ -1284,31 +1074,31 @@
       </c>
       <c r="B12" s="5">
         <f>AK4</f>
-        <v>6.36855117365696</v>
+        <v>6.3685512119271301</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" ref="C12:H12" si="4">AL4</f>
-        <v>3.4343975003311198</v>
+        <v>3.4343976475082401</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="4"/>
-        <v>1.7648986272389999</v>
+        <v>1.76489910407938</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="4"/>
-        <v>0.88730311743947099</v>
+        <v>0.88730472288289297</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>0.44339394530065201</v>
+        <v>0.44339971278177998</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="4"/>
-        <v>0.22139371241575401</v>
+        <v>0.221415240005127</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="4"/>
-        <v>0.110536220082284</v>
+        <v>0.110605981411991</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
@@ -1318,27 +1108,27 @@
       </c>
       <c r="C13" s="4">
         <f>LOG(B12/C12, 2)</f>
-        <v>0.89090817314535864</v>
+        <v>0.89090811998984265</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ref="D13:H13" si="5">LOG(C12/D12, 2)</f>
-        <v>0.9604717079186893</v>
+        <v>0.96047137995636034</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="5"/>
-        <v>0.99208637757948592</v>
+        <v>0.99208415702644326</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="5"/>
-        <v>1.0008379674119141</v>
+        <v>1.0008218119067327</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="5"/>
-        <v>1.001974819690761</v>
+        <v>1.001853309481457</v>
       </c>
       <c r="H13" s="4">
         <f t="shared" si="5"/>
-        <v>1.0020950663110046</v>
+        <v>1.001325119648802</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
@@ -1347,31 +1137,31 @@
       </c>
       <c r="B14" s="5">
         <f>AK5</f>
-        <v>0.41896284278870599</v>
+        <v>0.41896283871060702</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" ref="C14:H14" si="6">AL5</f>
-        <v>0.121977653914548</v>
+        <v>0.121977655548644</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="6"/>
-        <v>3.2711963208429E-2</v>
+        <v>3.2711972250565602E-2</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="6"/>
-        <v>8.3700621179153296E-3</v>
+        <v>8.3700831471367702E-3</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="6"/>
-        <v>2.1062130737177702E-3</v>
+        <v>2.1062567872522698E-3</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="6"/>
-        <v>5.2738671579293699E-4</v>
+        <v>5.2747253451219597E-4</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" si="6"/>
-        <v>1.3184338534776401E-4</v>
+        <v>1.3192487017129001E-4</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1381,27 +1171,27 @@
       </c>
       <c r="C15" s="9">
         <f>LOG(B14/C14, 2)</f>
-        <v>1.7802054261780718</v>
+        <v>1.7802053928078436</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" ref="D15:H15" si="7">LOG(C14/D14, 2)</f>
-        <v>1.8987266224015789</v>
+        <v>1.8987262429437974</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="7"/>
-        <v>1.966508110556995</v>
+        <v>1.9665048846718276</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="7"/>
-        <v>1.990586936609448</v>
+        <v>1.9905606190835661</v>
       </c>
       <c r="G15" s="9">
         <f t="shared" si="7"/>
-        <v>1.9977182559789002</v>
+        <v>1.9975134555002845</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="7"/>
-        <v>2.0000360397429309</v>
+        <v>1.9993794109043512</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
